--- a/teaching/traditional_assets/database/data/brazil/brazil_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/brazil/brazil_bank_money_center.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,118 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.22585</v>
+        <v>0.08105</v>
       </c>
       <c r="E2">
-        <v>0.0454</v>
+        <v>-0.00365</v>
       </c>
       <c r="F2">
-        <v>0.194</v>
+        <v>0.07735</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.005356473545750967</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.005356473545750967</v>
       </c>
       <c r="I2">
-        <v>-3.794084505164471e-05</v>
+        <v>0.00353636248378835</v>
       </c>
       <c r="J2">
-        <v>-3.612261213277355e-05</v>
+        <v>0.003404015335309645</v>
       </c>
       <c r="K2">
-        <v>3914.77</v>
+        <v>12497.996</v>
       </c>
       <c r="L2">
-        <v>0.2438911034200775</v>
+        <v>0.2890552027154638</v>
       </c>
       <c r="M2">
-        <v>1703.02</v>
+        <v>6516.9636</v>
       </c>
       <c r="N2">
-        <v>0.04627595689294429</v>
+        <v>0.0356916904220099</v>
       </c>
       <c r="O2">
-        <v>0.4350242798427494</v>
+        <v>0.5214406853706787</v>
       </c>
       <c r="P2">
-        <v>1703.02</v>
+        <v>6461.0736</v>
       </c>
       <c r="Q2">
-        <v>0.04627595689294429</v>
+        <v>0.0353855956361366</v>
       </c>
       <c r="R2">
-        <v>0.4350242798427494</v>
+        <v>0.5169687684329551</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>55.89000000000009</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.008576079817294068</v>
       </c>
       <c r="U2">
-        <v>9018.912</v>
+        <v>75898.965</v>
       </c>
       <c r="V2">
-        <v>0.2450698071269028</v>
+        <v>0.4156786086899373</v>
       </c>
       <c r="W2">
-        <v>0.09824995501550447</v>
+        <v>0.09096498809189914</v>
       </c>
       <c r="X2">
-        <v>0.1035792421469457</v>
+        <v>0.07870178904838744</v>
       </c>
       <c r="Y2">
-        <v>-0.005329287131441277</v>
+        <v>0.0122631990435117</v>
       </c>
       <c r="Z2">
-        <v>0.07971849646174958</v>
+        <v>0.07969210864095438</v>
       </c>
       <c r="AA2">
-        <v>-0.001279433267786013</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.05958970545373542</v>
+        <v>0.05622883341600936</v>
       </c>
       <c r="AC2">
-        <v>-0.06086913872152144</v>
+        <v>-0.05569728121277678</v>
       </c>
       <c r="AD2">
-        <v>174651.9</v>
+        <v>416852.2</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>532.5393683536232</v>
       </c>
       <c r="AF2">
-        <v>174651.9</v>
+        <v>417384.7393683536</v>
       </c>
       <c r="AG2">
-        <v>165632.988</v>
+        <v>341485.7743683537</v>
       </c>
       <c r="AH2">
-        <v>0.8259596799860773</v>
+        <v>0.6956699409925167</v>
       </c>
       <c r="AI2">
-        <v>0.8719324188584974</v>
+        <v>0.7967573954763114</v>
       </c>
       <c r="AJ2">
-        <v>0.8182057882379153</v>
+        <v>0.6515955616955406</v>
       </c>
       <c r="AK2">
-        <v>0.8658941654789829</v>
+        <v>0.7623211376400714</v>
       </c>
       <c r="AL2">
-        <v>0.095</v>
+        <v>40.235</v>
       </c>
       <c r="AM2">
-        <v>0.095</v>
+        <v>-6.365000000000002</v>
+      </c>
+      <c r="AN2">
+        <v>1127.236884802596</v>
       </c>
       <c r="AO2">
-        <v>-6.410526315789474</v>
+        <v>1.884205293898347</v>
+      </c>
+      <c r="AP2">
+        <v>923.4336786596907</v>
       </c>
       <c r="AQ2">
-        <v>-6.410526315789474</v>
+        <v>-11.91060487038492</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alfa Holdings S.A. (BOVESPA:RPAD3)</t>
+          <t>Itaúsa - Investimentos Itaú S.A. (BOVESPA:ITSA4)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -722,46 +728,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.404</v>
+        <v>0.0187</v>
       </c>
       <c r="E3">
-        <v>0.0154</v>
+        <v>-0.0624</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.237782340862423</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.237782340862423</v>
       </c>
       <c r="I3">
-        <v>-2.00990099009901</v>
+        <v>0.07854209445585215</v>
       </c>
       <c r="J3">
-        <v>-2.00990099009901</v>
+        <v>0.07666138985346765</v>
       </c>
       <c r="K3">
-        <v>9.77</v>
+        <v>1218.2</v>
       </c>
       <c r="L3">
-        <v>32.24422442244224</v>
+        <v>1.250718685831622</v>
       </c>
       <c r="M3">
-        <v>1.62</v>
+        <v>842.3</v>
       </c>
       <c r="N3">
-        <v>0.01058131939908557</v>
+        <v>0.04355852967337567</v>
       </c>
       <c r="O3">
-        <v>0.165813715455476</v>
+        <v>0.6914299786570349</v>
       </c>
       <c r="P3">
-        <v>1.62</v>
+        <v>842.3</v>
       </c>
       <c r="Q3">
-        <v>0.01058131939908557</v>
+        <v>0.04355852967337567</v>
       </c>
       <c r="R3">
-        <v>0.165813715455476</v>
+        <v>0.6914299786570349</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -770,67 +776,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.012</v>
+        <v>462.8</v>
       </c>
       <c r="V3">
-        <v>7.838014369693012e-05</v>
+        <v>0.02393314440560164</v>
       </c>
       <c r="W3">
-        <v>0.04105042016806722</v>
+        <v>0.09736953585216328</v>
       </c>
       <c r="X3">
-        <v>0.05199850847990402</v>
+        <v>0.04698148639521713</v>
       </c>
       <c r="Y3">
-        <v>-0.01094808831183679</v>
+        <v>0.05038804945694615</v>
       </c>
       <c r="Z3">
-        <v>0.001273130640851107</v>
+        <v>0.07394304715197803</v>
       </c>
       <c r="AA3">
-        <v>-0.002558866535572026</v>
+        <v>0.005668576764671127</v>
       </c>
       <c r="AB3">
-        <v>0.05199850847990402</v>
+        <v>0.04624140716287126</v>
       </c>
       <c r="AC3">
-        <v>-0.05455737501547604</v>
+        <v>-0.04057283039820014</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>891.8</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>891.8</v>
       </c>
       <c r="AG3">
-        <v>-0.012</v>
+        <v>428.9999999999999</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.04408522418310346</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.0800380535262336</v>
       </c>
       <c r="AJ3">
-        <v>-7.838628762541806e-05</v>
+        <v>0.02170371644524491</v>
       </c>
       <c r="AK3">
-        <v>-5.052886882705652e-05</v>
+        <v>0.04017079611214112</v>
       </c>
       <c r="AL3">
-        <v>0.095</v>
+        <v>40.2</v>
       </c>
       <c r="AM3">
-        <v>0.095</v>
+        <v>-6.399999999999999</v>
+      </c>
+      <c r="AN3">
+        <v>4.789473684210527</v>
       </c>
       <c r="AO3">
-        <v>-6.410526315789474</v>
+        <v>1.902985074626866</v>
+      </c>
+      <c r="AP3">
+        <v>2.303974221267454</v>
       </c>
       <c r="AQ3">
-        <v>-6.410526315789474</v>
+        <v>-11.953125</v>
       </c>
     </row>
     <row r="4">
@@ -841,120 +853,1593 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Banco Inter S.A. (BOVESPA:BIDI4)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Bank (Money Center)</t>
+        </is>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0.236</v>
+      </c>
+      <c r="L4">
+        <v>0.001766467065868263</v>
+      </c>
+      <c r="M4">
+        <v>15.09</v>
+      </c>
+      <c r="N4">
+        <v>0.003148866908726681</v>
+      </c>
+      <c r="O4">
+        <v>63.9406779661017</v>
+      </c>
+      <c r="P4">
+        <v>8.76</v>
+      </c>
+      <c r="Q4">
+        <v>0.001827970451984475</v>
+      </c>
+      <c r="R4">
+        <v>37.11864406779661</v>
+      </c>
+      <c r="S4">
+        <v>6.33</v>
+      </c>
+      <c r="T4">
+        <v>0.4194831013916501</v>
+      </c>
+      <c r="U4">
+        <v>950.1</v>
+      </c>
+      <c r="V4">
+        <v>0.1982596719669463</v>
+      </c>
+      <c r="W4">
+        <v>0.0004493526275704493</v>
+      </c>
+      <c r="X4">
+        <v>0.04848831717154116</v>
+      </c>
+      <c r="Y4">
+        <v>-0.04803896454397071</v>
+      </c>
+      <c r="Z4">
+        <v>0.4084377866095995</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0.04712345339241655</v>
+      </c>
+      <c r="AC4">
+        <v>-0.04712345339241655</v>
+      </c>
+      <c r="AD4">
+        <v>520.2</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>520.2</v>
+      </c>
+      <c r="AG4">
+        <v>-429.9</v>
+      </c>
+      <c r="AH4">
+        <v>0.0979218432346962</v>
+      </c>
+      <c r="AI4">
+        <v>0.4689866570501263</v>
+      </c>
+      <c r="AJ4">
+        <v>-0.09854893060999931</v>
+      </c>
+      <c r="AK4">
+        <v>-2.702074167190446</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alfa Holdings S.A. (BOVESPA:RPAD3)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Bank (Money Center)</t>
+        </is>
+      </c>
+      <c r="D5">
+        <v>0.251</v>
+      </c>
+      <c r="E5">
+        <v>-0.0164</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>-6.754901960784314</v>
+      </c>
+      <c r="J5">
+        <v>-6.754901960784314</v>
+      </c>
+      <c r="K5">
+        <v>7.33</v>
+      </c>
+      <c r="L5">
+        <v>71.86274509803923</v>
+      </c>
+      <c r="M5">
+        <v>1.26</v>
+      </c>
+      <c r="N5">
+        <v>0.01276595744680851</v>
+      </c>
+      <c r="O5">
+        <v>0.1718963165075034</v>
+      </c>
+      <c r="P5">
+        <v>1.26</v>
+      </c>
+      <c r="Q5">
+        <v>0.01276595744680851</v>
+      </c>
+      <c r="R5">
+        <v>0.1718963165075034</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0.065</v>
+      </c>
+      <c r="V5">
+        <v>0.0006585612968591692</v>
+      </c>
+      <c r="W5">
+        <v>0.03086315789473684</v>
+      </c>
+      <c r="X5">
+        <v>0.04586841268820047</v>
+      </c>
+      <c r="Y5">
+        <v>-0.01500525479346362</v>
+      </c>
+      <c r="Z5">
+        <v>0.0004294953850299805</v>
+      </c>
+      <c r="AA5">
+        <v>-0.002901199218486829</v>
+      </c>
+      <c r="AB5">
+        <v>0.04586841268820047</v>
+      </c>
+      <c r="AC5">
+        <v>-0.04876961190668729</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>-0.065</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>-0.0006589952856491104</v>
+      </c>
+      <c r="AK5">
+        <v>-0.0003528102694927674</v>
+      </c>
+      <c r="AL5">
+        <v>0.035</v>
+      </c>
+      <c r="AM5">
+        <v>0.035</v>
+      </c>
+      <c r="AO5">
+        <v>-19.68571428571428</v>
+      </c>
+      <c r="AQ5">
+        <v>-19.68571428571428</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Banco Mercantil do Brasil S.A. (BOVESPA:BMEB4)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Bank (Money Center)</t>
+        </is>
+      </c>
+      <c r="D6">
+        <v>0.0795</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>26.1</v>
+      </c>
+      <c r="L6">
+        <v>0.08376123234916559</v>
+      </c>
+      <c r="M6">
+        <v>6.43</v>
+      </c>
+      <c r="N6">
+        <v>0.03882850241545894</v>
+      </c>
+      <c r="O6">
+        <v>0.246360153256705</v>
+      </c>
+      <c r="P6">
+        <v>6.43</v>
+      </c>
+      <c r="Q6">
+        <v>0.03882850241545894</v>
+      </c>
+      <c r="R6">
+        <v>0.246360153256705</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>534.8</v>
+      </c>
+      <c r="V6">
+        <v>3.229468599033816</v>
+      </c>
+      <c r="W6">
+        <v>0.1174089068825911</v>
+      </c>
+      <c r="X6">
+        <v>0.08202741814739173</v>
+      </c>
+      <c r="Y6">
+        <v>0.03538148873519936</v>
+      </c>
+      <c r="Z6">
+        <v>3.532879818594103</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0.05094241415255484</v>
+      </c>
+      <c r="AC6">
+        <v>-0.05094241415255484</v>
+      </c>
+      <c r="AD6">
+        <v>248.1</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>248.1</v>
+      </c>
+      <c r="AG6">
+        <v>-286.6999999999999</v>
+      </c>
+      <c r="AH6">
+        <v>0.5997099347353154</v>
+      </c>
+      <c r="AI6">
+        <v>0.5760390062688646</v>
+      </c>
+      <c r="AJ6">
+        <v>2.36746490503716</v>
+      </c>
+      <c r="AK6">
+        <v>2.754082612872239</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Banco BMG S.A. (BOVESPA:BMGB4)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Bank (Money Center)</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>0.263</v>
+      </c>
+      <c r="E7">
+        <v>0.246</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>73.3</v>
+      </c>
+      <c r="L7">
+        <v>0.1760326609029779</v>
+      </c>
+      <c r="M7">
+        <v>42.3</v>
+      </c>
+      <c r="N7">
+        <v>0.05997447894512973</v>
+      </c>
+      <c r="O7">
+        <v>0.5770804911323328</v>
+      </c>
+      <c r="P7">
+        <v>23.2</v>
+      </c>
+      <c r="Q7">
+        <v>0.03289380405501206</v>
+      </c>
+      <c r="R7">
+        <v>0.3165075034106412</v>
+      </c>
+      <c r="S7">
+        <v>19.1</v>
+      </c>
+      <c r="T7">
+        <v>0.4515366430260047</v>
+      </c>
+      <c r="U7">
+        <v>34</v>
+      </c>
+      <c r="V7">
+        <v>0.04820643697717283</v>
+      </c>
+      <c r="W7">
+        <v>0.1116697135892748</v>
+      </c>
+      <c r="X7">
+        <v>0.07249475901228185</v>
+      </c>
+      <c r="Y7">
+        <v>0.03917495457699298</v>
+      </c>
+      <c r="Z7">
+        <v>0.3736204576043069</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0.0525912928856847</v>
+      </c>
+      <c r="AC7">
+        <v>-0.0525912928856847</v>
+      </c>
+      <c r="AD7">
+        <v>778.1</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>778.1</v>
+      </c>
+      <c r="AG7">
+        <v>744.1</v>
+      </c>
+      <c r="AH7">
+        <v>0.5245382230012134</v>
+      </c>
+      <c r="AI7">
+        <v>0.5159130088847633</v>
+      </c>
+      <c r="AJ7">
+        <v>0.5133848489029943</v>
+      </c>
+      <c r="AK7">
+        <v>0.5047483380816714</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Banco Indusval S.A. (BOVESPA:IDVL4)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Bank (Money Center)</t>
+        </is>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>-40</v>
+      </c>
+      <c r="L8">
+        <v>-2.564102564102564</v>
+      </c>
+      <c r="M8">
+        <v>-0</v>
+      </c>
+      <c r="N8">
+        <v>-0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>-0</v>
+      </c>
+      <c r="Q8">
+        <v>-0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>50.9</v>
+      </c>
+      <c r="V8">
+        <v>1.180974477958237</v>
+      </c>
+      <c r="W8">
+        <v>-0.4175365344467641</v>
+      </c>
+      <c r="X8">
+        <v>0.07605135266430356</v>
+      </c>
+      <c r="Y8">
+        <v>-0.4935878871110677</v>
+      </c>
+      <c r="Z8">
+        <v>0.1727574750830565</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0.05299030270232029</v>
+      </c>
+      <c r="AC8">
+        <v>-0.05299030270232029</v>
+      </c>
+      <c r="AD8">
+        <v>53.9</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>53.9</v>
+      </c>
+      <c r="AG8">
+        <v>3</v>
+      </c>
+      <c r="AH8">
+        <v>0.5556701030927835</v>
+      </c>
+      <c r="AI8">
+        <v>0.5597092419522326</v>
+      </c>
+      <c r="AJ8">
+        <v>0.06507592190889371</v>
+      </c>
+      <c r="AK8">
+        <v>0.06607929515418502</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Banco Pan S.A. (BOVESPA:BPAN4)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Bank (Money Center)</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>0.0849</v>
+      </c>
+      <c r="E9">
+        <v>0.266</v>
+      </c>
+      <c r="F9">
+        <v>0.182</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>116.1</v>
+      </c>
+      <c r="L9">
+        <v>0.1150644202180377</v>
+      </c>
+      <c r="M9">
+        <v>38</v>
+      </c>
+      <c r="N9">
+        <v>0.01718368454372795</v>
+      </c>
+      <c r="O9">
+        <v>0.3273040482342808</v>
+      </c>
+      <c r="P9">
+        <v>38</v>
+      </c>
+      <c r="Q9">
+        <v>0.01718368454372795</v>
+      </c>
+      <c r="R9">
+        <v>0.3273040482342808</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>261.5</v>
+      </c>
+      <c r="V9">
+        <v>0.1182508817943384</v>
+      </c>
+      <c r="W9">
+        <v>0.1001380024150423</v>
+      </c>
+      <c r="X9">
+        <v>0.05497066333489173</v>
+      </c>
+      <c r="Y9">
+        <v>0.04516733908015053</v>
+      </c>
+      <c r="Z9">
+        <v>0.4714292388917442</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0.0537162281919461</v>
+      </c>
+      <c r="AC9">
+        <v>-0.0537162281919461</v>
+      </c>
+      <c r="AD9">
+        <v>834</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>834</v>
+      </c>
+      <c r="AG9">
+        <v>572.5</v>
+      </c>
+      <c r="AH9">
+        <v>0.2738556511459906</v>
+      </c>
+      <c r="AI9">
+        <v>0.4729499829874106</v>
+      </c>
+      <c r="AJ9">
+        <v>0.2056467545529652</v>
+      </c>
+      <c r="AK9">
+        <v>0.3811838338105067</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Banco Santander (Brasil) S.A. (BOVESPA:SANB4)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Bank (Money Center)</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>0.132</v>
+      </c>
+      <c r="E10">
+        <v>0.06</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0.01200165149960099</v>
+      </c>
+      <c r="J10">
+        <v>0.01200165149960099</v>
+      </c>
+      <c r="K10">
+        <v>2302.7</v>
+      </c>
+      <c r="L10">
+        <v>0.4032678937321588</v>
+      </c>
+      <c r="M10">
+        <v>1687.3</v>
+      </c>
+      <c r="N10">
+        <v>0.05206398380656748</v>
+      </c>
+      <c r="O10">
+        <v>0.7327485126156252</v>
+      </c>
+      <c r="P10">
+        <v>1660.4</v>
+      </c>
+      <c r="Q10">
+        <v>0.05123394696403997</v>
+      </c>
+      <c r="R10">
+        <v>0.7210665740218006</v>
+      </c>
+      <c r="S10">
+        <v>26.90000000000009</v>
+      </c>
+      <c r="T10">
+        <v>0.01594263023765785</v>
+      </c>
+      <c r="U10">
+        <v>7949.8</v>
+      </c>
+      <c r="V10">
+        <v>0.2453021148968471</v>
+      </c>
+      <c r="W10">
+        <v>0.09636502117544653</v>
+      </c>
+      <c r="X10">
+        <v>0.07284241196040928</v>
+      </c>
+      <c r="Y10">
+        <v>0.02352260921503725</v>
+      </c>
+      <c r="Z10">
+        <v>0.08857984307413864</v>
+      </c>
+      <c r="AA10">
+        <v>0.001063104406465156</v>
+      </c>
+      <c r="AB10">
+        <v>0.05874143864007263</v>
+      </c>
+      <c r="AC10">
+        <v>-0.05767833423360747</v>
+      </c>
+      <c r="AD10">
+        <v>35752.8</v>
+      </c>
+      <c r="AE10">
+        <v>467.346848860642</v>
+      </c>
+      <c r="AF10">
+        <v>36220.14684886065</v>
+      </c>
+      <c r="AG10">
+        <v>28270.34684886065</v>
+      </c>
+      <c r="AH10">
+        <v>0.5277723930699924</v>
+      </c>
+      <c r="AI10">
+        <v>0.662188392655051</v>
+      </c>
+      <c r="AJ10">
+        <v>0.4659034917114446</v>
+      </c>
+      <c r="AK10">
+        <v>0.6047411539671728</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>220.6962962962963</v>
+      </c>
+      <c r="AP10">
+        <v>174.5083138818559</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Banco do Estado do Rio Grande do Sul S.A. (BOVESPA:BRSR6)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Bank (Money Center)</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>0.0567</v>
+      </c>
+      <c r="E11">
+        <v>-0.0119</v>
+      </c>
+      <c r="F11">
+        <v>-0.116</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0.008589842581924089</v>
+      </c>
+      <c r="J11">
+        <v>0.008589842581924089</v>
+      </c>
+      <c r="K11">
+        <v>158.8</v>
+      </c>
+      <c r="L11">
+        <v>0.1593257750576904</v>
+      </c>
+      <c r="M11">
+        <v>13.1</v>
+      </c>
+      <c r="N11">
+        <v>0.01095867492052869</v>
+      </c>
+      <c r="O11">
+        <v>0.08249370277078084</v>
+      </c>
+      <c r="P11">
+        <v>13.1</v>
+      </c>
+      <c r="Q11">
+        <v>0.01095867492052869</v>
+      </c>
+      <c r="R11">
+        <v>0.08249370277078084</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>1245.6</v>
+      </c>
+      <c r="V11">
+        <v>1.041994311527522</v>
+      </c>
+      <c r="W11">
+        <v>0.08556495500835175</v>
+      </c>
+      <c r="X11">
+        <v>0.08135222543247132</v>
+      </c>
+      <c r="Y11">
+        <v>0.004212729575880425</v>
+      </c>
+      <c r="Z11">
+        <v>0.310489493354984</v>
+      </c>
+      <c r="AA11">
+        <v>0.002667055871260679</v>
+      </c>
+      <c r="AB11">
+        <v>0.06038551110582585</v>
+      </c>
+      <c r="AC11">
+        <v>-0.05771845523456517</v>
+      </c>
+      <c r="AD11">
+        <v>1692.3</v>
+      </c>
+      <c r="AE11">
+        <v>65.1925194929813</v>
+      </c>
+      <c r="AF11">
+        <v>1757.492519492981</v>
+      </c>
+      <c r="AG11">
+        <v>511.8925194929814</v>
+      </c>
+      <c r="AH11">
+        <v>0.5951765964698054</v>
+      </c>
+      <c r="AI11">
+        <v>0.5416681783411179</v>
+      </c>
+      <c r="AJ11">
+        <v>0.2998270733623312</v>
+      </c>
+      <c r="AK11">
+        <v>0.2560752551604427</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>78.34722222222221</v>
+      </c>
+      <c r="AP11">
+        <v>23.69872775430469</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Banco Pine S.A. (BOVESPA:PINE4)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Bank (Money Center)</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>-0.13</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>-6.07</v>
+      </c>
+      <c r="L12">
+        <v>-0.3993421052631579</v>
+      </c>
+      <c r="M12">
+        <v>-0</v>
+      </c>
+      <c r="N12">
+        <v>-0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>-0</v>
+      </c>
+      <c r="Q12">
+        <v>-0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>31.1</v>
+      </c>
+      <c r="V12">
+        <v>0.4325452016689847</v>
+      </c>
+      <c r="W12">
+        <v>-0.03230441724321448</v>
+      </c>
+      <c r="X12">
+        <v>0.288092695765135</v>
+      </c>
+      <c r="Y12">
+        <v>-0.3203971130083495</v>
+      </c>
+      <c r="Z12">
+        <v>0.01971721364638734</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0.06003265170414562</v>
+      </c>
+      <c r="AC12">
+        <v>-0.06003265170414562</v>
+      </c>
+      <c r="AD12">
+        <v>721.6</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>721.6</v>
+      </c>
+      <c r="AG12">
+        <v>690.5</v>
+      </c>
+      <c r="AH12">
+        <v>0.9093887838689352</v>
+      </c>
+      <c r="AI12">
+        <v>0.83267943687976</v>
+      </c>
+      <c r="AJ12">
+        <v>0.9056925498426024</v>
+      </c>
+      <c r="AK12">
+        <v>0.8264512268102933</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Banco Bradesco S.A. (BOVESPA:BBDC4)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Bank (Money Center)</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>0.0601</v>
+      </c>
+      <c r="E13">
+        <v>-0.0332</v>
+      </c>
+      <c r="F13">
+        <v>0.065</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>2564.2</v>
+      </c>
+      <c r="L13">
+        <v>0.2367988474964446</v>
+      </c>
+      <c r="M13">
+        <v>1014.5</v>
+      </c>
+      <c r="N13">
+        <v>0.02323184904450577</v>
+      </c>
+      <c r="O13">
+        <v>0.3956399656813042</v>
+      </c>
+      <c r="P13">
+        <v>1014.5</v>
+      </c>
+      <c r="Q13">
+        <v>0.02323184904450577</v>
+      </c>
+      <c r="R13">
+        <v>0.3956399656813042</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>39665</v>
+      </c>
+      <c r="V13">
+        <v>0.9083206430264378</v>
+      </c>
+      <c r="W13">
+        <v>0.0772470386928073</v>
+      </c>
+      <c r="X13">
+        <v>0.0990100736661972</v>
+      </c>
+      <c r="Y13">
+        <v>-0.0217630349733899</v>
+      </c>
+      <c r="Z13">
+        <v>0.08470736587830914</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0.06264176600550024</v>
+      </c>
+      <c r="AC13">
+        <v>-0.06264176600550024</v>
+      </c>
+      <c r="AD13">
+        <v>96150.89999999999</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>96150.89999999999</v>
+      </c>
+      <c r="AG13">
+        <v>56485.89999999999</v>
+      </c>
+      <c r="AH13">
+        <v>0.687679249088467</v>
+      </c>
+      <c r="AI13">
+        <v>0.7962695349216615</v>
+      </c>
+      <c r="AJ13">
+        <v>0.5639882022157788</v>
+      </c>
+      <c r="AK13">
+        <v>0.6966111581800714</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Itaú Unibanco Holding S.A. (BOVESPA:ITUB4)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Bank (Money Center)</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>-0.00153</v>
+      </c>
+      <c r="E14">
+        <v>-0.07240000000000001</v>
+      </c>
+      <c r="F14">
+        <v>0.0989</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>3308.6</v>
+      </c>
+      <c r="L14">
+        <v>0.2727392630450911</v>
+      </c>
+      <c r="M14">
+        <v>2056</v>
+      </c>
+      <c r="N14">
+        <v>0.03676201068172431</v>
+      </c>
+      <c r="O14">
+        <v>0.6214108686453486</v>
+      </c>
+      <c r="P14">
+        <v>2056</v>
+      </c>
+      <c r="Q14">
+        <v>0.03676201068172431</v>
+      </c>
+      <c r="R14">
+        <v>0.6214108686453486</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>9823.1</v>
+      </c>
+      <c r="V14">
+        <v>0.1756405190309563</v>
+      </c>
+      <c r="W14">
+        <v>0.1096565072715462</v>
+      </c>
+      <c r="X14">
+        <v>0.09927444938461873</v>
+      </c>
+      <c r="Y14">
+        <v>0.01038205788692745</v>
+      </c>
+      <c r="Z14">
+        <v>0.08914157056998138</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0.06266773911366295</v>
+      </c>
+      <c r="AC14">
+        <v>-0.06266773911366295</v>
+      </c>
+      <c r="AD14">
+        <v>123755.4</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>123755.4</v>
+      </c>
+      <c r="AG14">
+        <v>113932.3</v>
+      </c>
+      <c r="AH14">
+        <v>0.6887441027989895</v>
+      </c>
+      <c r="AI14">
+        <v>0.8245632504031022</v>
+      </c>
+      <c r="AJ14">
+        <v>0.670743955596269</v>
+      </c>
+      <c r="AK14">
+        <v>0.8122768030605384</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Banco ABC Brasil S.A. (BOVESPA:ABCB4)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Bank (Money Center)</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>0.212</v>
+      </c>
+      <c r="E15">
+        <v>0.00796</v>
+      </c>
+      <c r="F15">
+        <v>0.0897</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="L15">
+        <v>1.108433734939759</v>
+      </c>
+      <c r="M15">
+        <v>21.76</v>
+      </c>
+      <c r="N15">
+        <v>0.03356988583770441</v>
+      </c>
+      <c r="O15">
+        <v>0.3378881987577639</v>
+      </c>
+      <c r="P15">
+        <v>18.2</v>
+      </c>
+      <c r="Q15">
+        <v>0.02807775377969762</v>
+      </c>
+      <c r="R15">
+        <v>0.2826086956521739</v>
+      </c>
+      <c r="S15">
+        <v>3.559999999999999</v>
+      </c>
+      <c r="T15">
+        <v>0.1636029411764705</v>
+      </c>
+      <c r="U15">
+        <v>1025.8</v>
+      </c>
+      <c r="V15">
+        <v>1.582536254242518</v>
+      </c>
+      <c r="W15">
+        <v>0.0678251711427067</v>
+      </c>
+      <c r="X15">
+        <v>0.1542531936911233</v>
+      </c>
+      <c r="Y15">
+        <v>-0.08642802254841661</v>
+      </c>
+      <c r="Z15">
+        <v>0.02040601292497893</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0.06581740996818081</v>
+      </c>
+      <c r="AC15">
+        <v>-0.06581740996818081</v>
+      </c>
+      <c r="AD15">
+        <v>2910.9</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>2910.9</v>
+      </c>
+      <c r="AG15">
+        <v>1885.1</v>
+      </c>
+      <c r="AH15">
+        <v>0.8178753055547751</v>
+      </c>
+      <c r="AI15">
+        <v>0.7961327024587698</v>
+      </c>
+      <c r="AJ15">
+        <v>0.7441282122133186</v>
+      </c>
+      <c r="AK15">
+        <v>0.7166318190458089</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>Banco do Brasil S.A. (BOVESPA:BBAS3)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Bank (Money Center)</t>
         </is>
       </c>
-      <c r="D4">
-        <v>0.04769999999999999</v>
-      </c>
-      <c r="E4">
-        <v>0.07539999999999999</v>
-      </c>
-      <c r="F4">
-        <v>0.194</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>3905</v>
-      </c>
-      <c r="L4">
-        <v>0.2432870226154134</v>
-      </c>
-      <c r="M4">
-        <v>1701.4</v>
-      </c>
-      <c r="N4">
-        <v>0.04642507292289137</v>
-      </c>
-      <c r="O4">
-        <v>0.4356978233034571</v>
-      </c>
-      <c r="P4">
-        <v>1701.4</v>
-      </c>
-      <c r="Q4">
-        <v>0.04642507292289137</v>
-      </c>
-      <c r="R4">
-        <v>0.4356978233034571</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>9018.9</v>
-      </c>
-      <c r="V4">
-        <v>0.246093270356333</v>
-      </c>
-      <c r="W4">
-        <v>0.1554494898629417</v>
-      </c>
-      <c r="X4">
-        <v>0.1551599758139875</v>
-      </c>
-      <c r="Y4">
-        <v>0.000289514048954248</v>
-      </c>
-      <c r="Z4">
-        <v>0.07981132882307254</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0.06718090242756683</v>
-      </c>
-      <c r="AC4">
-        <v>-0.06718090242756683</v>
-      </c>
-      <c r="AD4">
-        <v>174651.9</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>174651.9</v>
-      </c>
-      <c r="AG4">
-        <v>165633</v>
-      </c>
-      <c r="AH4">
-        <v>0.8265581386103751</v>
-      </c>
-      <c r="AI4">
-        <v>0.872967492373801</v>
-      </c>
-      <c r="AJ4">
-        <v>0.8188250718183046</v>
-      </c>
-      <c r="AK4">
-        <v>0.8669706042460533</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
+      <c r="D16">
+        <v>0.08259999999999999</v>
+      </c>
+      <c r="E16">
+        <v>0.0046</v>
+      </c>
+      <c r="F16">
+        <v>0.0285</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>2704.1</v>
+      </c>
+      <c r="L16">
+        <v>0.2542068550585669</v>
+      </c>
+      <c r="M16">
+        <v>778.9236</v>
+      </c>
+      <c r="N16">
+        <v>0.03653916265978656</v>
+      </c>
+      <c r="O16">
+        <v>0.2880528086979032</v>
+      </c>
+      <c r="P16">
+        <v>778.9236</v>
+      </c>
+      <c r="Q16">
+        <v>0.03653916265978656</v>
+      </c>
+      <c r="R16">
+        <v>0.2880528086979032</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>13864.4</v>
+      </c>
+      <c r="V16">
+        <v>0.6503764512724287</v>
+      </c>
+      <c r="W16">
+        <v>0.1101951163852122</v>
+      </c>
+      <c r="X16">
+        <v>0.2185729624945834</v>
+      </c>
+      <c r="Y16">
+        <v>-0.1083778461093712</v>
+      </c>
+      <c r="Z16">
+        <v>0.0559356204534627</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0.06726896861481305</v>
+      </c>
+      <c r="AC16">
+        <v>-0.06726896861481305</v>
+      </c>
+      <c r="AD16">
+        <v>152542.2</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>152542.2</v>
+      </c>
+      <c r="AG16">
+        <v>138677.8</v>
+      </c>
+      <c r="AH16">
+        <v>0.8773867664559412</v>
+      </c>
+      <c r="AI16">
+        <v>0.8750845442013434</v>
+      </c>
+      <c r="AJ16">
+        <v>0.8667617111252643</v>
+      </c>
+      <c r="AK16">
+        <v>0.8642908470845303</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
         <v>0</v>
       </c>
     </row>
